--- a/Data Sheets/New England Benthic Monitoring Data Sheets_v1.5.3.xlsx
+++ b/Data Sheets/New England Benthic Monitoring Data Sheets_v1.5.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="20020" windowHeight="17220" tabRatio="723"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="26380" windowHeight="17420" tabRatio="723" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGELOG" sheetId="31" r:id="rId1"/>
@@ -3541,9 +3541,6 @@
     <t>Hemigrapsus sanguinolenta</t>
   </si>
   <si>
-    <t>Collect 1 kelp of each sp. every 4 m, or a total of 10 pieces</t>
-  </si>
-  <si>
     <t>Added info on collecting 10 pieces of kelp</t>
   </si>
   <si>
@@ -3554,6 +3551,9 @@
   </si>
   <si>
     <t>Added NO_FISH as people were doing subtly different things</t>
+  </si>
+  <si>
+    <t>Collect 1 kelp of each sp. every 4 m, or a total of 10 pieces per species</t>
   </si>
 </sst>
 </file>
@@ -5977,8 +5977,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5996,6 +6003,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -6005,43 +6040,25 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6052,23 +6069,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6126,53 +6126,90 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6185,88 +6222,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6277,64 +6277,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6940,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7047,7 +7047,7 @@
         <v>42596</v>
       </c>
       <c r="B13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>42927</v>
       </c>
       <c r="B14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7076,7 +7076,7 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A14" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -7089,42 +7089,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="391" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397" t="s">
+      <c r="C1" s="391"/>
+      <c r="D1" s="391" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="434" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="450" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="397" t="s">
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="391" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
-      <c r="I2" s="434"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -9092,7 +9092,7 @@
   </sheetPr>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:D26"/>
     </sheetView>
   </sheetViews>
@@ -9106,38 +9106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="391" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397" t="s">
+      <c r="C1" s="391"/>
+      <c r="D1" s="391" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="403" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="397" t="s">
         <v>543</v>
       </c>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
+      <c r="I1" s="396"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
       <c r="L1" s="225"/>
       <c r="M1" s="225"/>
       <c r="N1" s="225"/>
       <c r="O1" s="225"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
       <c r="L2" s="225"/>
       <c r="M2" s="225"/>
       <c r="N2" s="225"/>
@@ -9175,22 +9175,22 @@
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="B5" s="226"/>
-      <c r="C5" s="398" t="s">
+      <c r="C5" s="392" t="s">
         <v>544</v>
       </c>
-      <c r="D5" s="399"/>
-      <c r="E5" s="400" t="s">
+      <c r="D5" s="393"/>
+      <c r="E5" s="394" t="s">
         <v>545</v>
       </c>
-      <c r="F5" s="401"/>
-      <c r="G5" s="398" t="s">
+      <c r="F5" s="395"/>
+      <c r="G5" s="392" t="s">
         <v>546</v>
       </c>
-      <c r="H5" s="399"/>
-      <c r="I5" s="400" t="s">
+      <c r="H5" s="393"/>
+      <c r="I5" s="394" t="s">
         <v>435</v>
       </c>
-      <c r="J5" s="401"/>
+      <c r="J5" s="395"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -9200,14 +9200,14 @@
       <c r="B6" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="C6" s="389"/>
-      <c r="D6" s="390"/>
-      <c r="E6" s="389"/>
-      <c r="F6" s="390"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="390"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="390"/>
+      <c r="C6" s="400"/>
+      <c r="D6" s="401"/>
+      <c r="E6" s="400"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="400"/>
+      <c r="H6" s="401"/>
+      <c r="I6" s="400"/>
+      <c r="J6" s="401"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -9217,14 +9217,14 @@
       <c r="B7" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="387"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="387"/>
-      <c r="F7" s="388"/>
-      <c r="G7" s="387"/>
-      <c r="H7" s="388"/>
-      <c r="I7" s="387"/>
-      <c r="J7" s="388"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="399"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -9234,14 +9234,14 @@
       <c r="B8" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="379"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="379"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="402"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="402"/>
+      <c r="J8" s="403"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -9251,14 +9251,14 @@
       <c r="B9" s="98" t="s">
         <v>537</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="380"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="402"/>
+      <c r="J9" s="403"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -9268,215 +9268,215 @@
       <c r="B10" s="98" t="s">
         <v>538</v>
       </c>
-      <c r="C10" s="379"/>
-      <c r="D10" s="380"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="379"/>
-      <c r="J10" s="380"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="403"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="402"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="403"/>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B11" s="101" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="379"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="403"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="402"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="403"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B12" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="C12" s="387"/>
-      <c r="D12" s="388"/>
-      <c r="E12" s="387"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="387"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="387"/>
-      <c r="J12" s="388"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="399"/>
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B13" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="379"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="380"/>
-      <c r="I13" s="379"/>
-      <c r="J13" s="380"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="403"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="403"/>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A14" s="227"/>
       <c r="B14" s="98" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="379"/>
-      <c r="J14" s="380"/>
+      <c r="C14" s="402"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="402"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="403"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A15" s="227"/>
       <c r="B15" s="339" t="s">
         <v>588</v>
       </c>
-      <c r="C15" s="379"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="379"/>
-      <c r="J15" s="380"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="403"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A16" s="227"/>
-      <c r="B16" s="391" t="s">
+      <c r="B16" s="379" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="381"/>
-      <c r="D16" s="382"/>
-      <c r="E16" s="381"/>
-      <c r="F16" s="382"/>
-      <c r="G16" s="381"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="381"/>
-      <c r="J16" s="394"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="383"/>
+      <c r="I16" s="382"/>
+      <c r="J16" s="388"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A17" s="227"/>
-      <c r="B17" s="392"/>
-      <c r="C17" s="383"/>
-      <c r="D17" s="384"/>
-      <c r="E17" s="383"/>
-      <c r="F17" s="384"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="383"/>
-      <c r="J17" s="395"/>
+      <c r="B17" s="380"/>
+      <c r="C17" s="384"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="385"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="385"/>
+      <c r="I17" s="384"/>
+      <c r="J17" s="389"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A18" s="227"/>
-      <c r="B18" s="392"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="395"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="385"/>
+      <c r="E18" s="384"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="384"/>
+      <c r="J18" s="389"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A19" s="227"/>
-      <c r="B19" s="392"/>
-      <c r="C19" s="383"/>
-      <c r="D19" s="384"/>
-      <c r="E19" s="383"/>
-      <c r="F19" s="384"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="384"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="395"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="384"/>
+      <c r="D19" s="385"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="385"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="384"/>
+      <c r="J19" s="389"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A20" s="227"/>
-      <c r="B20" s="392"/>
-      <c r="C20" s="383"/>
-      <c r="D20" s="384"/>
-      <c r="E20" s="383"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="395"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="384"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="384"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="384"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="389"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A21" s="227"/>
-      <c r="B21" s="392"/>
-      <c r="C21" s="383"/>
-      <c r="D21" s="384"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="384"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="384"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="395"/>
+      <c r="B21" s="380"/>
+      <c r="C21" s="384"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="384"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="384"/>
+      <c r="J21" s="389"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A22" s="227"/>
-      <c r="B22" s="392"/>
-      <c r="C22" s="383"/>
-      <c r="D22" s="384"/>
-      <c r="E22" s="383"/>
-      <c r="F22" s="384"/>
-      <c r="G22" s="383"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="395"/>
+      <c r="B22" s="380"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="385"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="385"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="389"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A23" s="227"/>
-      <c r="B23" s="392"/>
-      <c r="C23" s="383"/>
-      <c r="D23" s="384"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383"/>
-      <c r="H23" s="384"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="395"/>
+      <c r="B23" s="380"/>
+      <c r="C23" s="384"/>
+      <c r="D23" s="385"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="384"/>
+      <c r="H23" s="385"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="389"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A24" s="227"/>
-      <c r="B24" s="392"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="383"/>
-      <c r="F24" s="384"/>
-      <c r="G24" s="383"/>
-      <c r="H24" s="384"/>
-      <c r="I24" s="383"/>
-      <c r="J24" s="395"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="384"/>
+      <c r="D24" s="385"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="385"/>
+      <c r="G24" s="384"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="384"/>
+      <c r="J24" s="389"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A25" s="227"/>
-      <c r="B25" s="392"/>
-      <c r="C25" s="383"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="383"/>
-      <c r="F25" s="384"/>
-      <c r="G25" s="383"/>
-      <c r="H25" s="384"/>
-      <c r="I25" s="383"/>
-      <c r="J25" s="395"/>
+      <c r="B25" s="380"/>
+      <c r="C25" s="384"/>
+      <c r="D25" s="385"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="385"/>
+      <c r="G25" s="384"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="384"/>
+      <c r="J25" s="389"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A26" s="227"/>
-      <c r="B26" s="393"/>
-      <c r="C26" s="385"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="385"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="386"/>
-      <c r="I26" s="385"/>
-      <c r="J26" s="396"/>
+      <c r="B26" s="381"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="387"/>
+      <c r="E26" s="386"/>
+      <c r="F26" s="387"/>
+      <c r="G26" s="386"/>
+      <c r="H26" s="387"/>
+      <c r="I26" s="386"/>
+      <c r="J26" s="390"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="B27"/>
@@ -10146,6 +10146,42 @@
     <row r="83" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B16:B26"/>
     <mergeCell ref="E16:F26"/>
     <mergeCell ref="G16:H26"/>
@@ -10162,42 +10198,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -10223,7 +10223,7 @@
   </sheetPr>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B6" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -10237,38 +10237,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="391" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397" t="s">
+      <c r="C1" s="391"/>
+      <c r="D1" s="391" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="403" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="397" t="s">
         <v>543</v>
       </c>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
+      <c r="I1" s="396"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
       <c r="L1" s="372"/>
       <c r="M1" s="372"/>
       <c r="N1" s="372"/>
       <c r="O1" s="372"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
       <c r="L2" s="372"/>
       <c r="M2" s="372"/>
       <c r="N2" s="372"/>
@@ -10336,22 +10336,22 @@
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="B7" s="374"/>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="404" t="s">
         <v>599</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="413" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="406" t="s">
         <v>600</v>
       </c>
-      <c r="F7" s="414"/>
-      <c r="G7" s="411" t="s">
+      <c r="F7" s="407"/>
+      <c r="G7" s="404" t="s">
         <v>602</v>
       </c>
-      <c r="H7" s="412"/>
-      <c r="I7" s="411" t="s">
+      <c r="H7" s="405"/>
+      <c r="I7" s="404" t="s">
         <v>601</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="405"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -10361,14 +10361,14 @@
       <c r="B8" s="375" t="s">
         <v>588</v>
       </c>
-      <c r="C8" s="409"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="379"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="C8" s="408"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="402"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="402"/>
+      <c r="J8" s="403"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -10378,14 +10378,14 @@
       <c r="B9" s="376" t="s">
         <v>603</v>
       </c>
-      <c r="C9" s="409"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="380"/>
+      <c r="C9" s="408"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="402"/>
+      <c r="J9" s="403"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -10395,188 +10395,188 @@
       <c r="B10" s="375" t="s">
         <v>604</v>
       </c>
-      <c r="C10" s="409"/>
-      <c r="D10" s="380"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="379"/>
-      <c r="J10" s="380"/>
+      <c r="C10" s="408"/>
+      <c r="D10" s="403"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="402"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="403"/>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="B11" s="375" t="s">
         <v>436</v>
       </c>
-      <c r="C11" s="409"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="C11" s="408"/>
+      <c r="D11" s="403"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="402"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="403"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="375" t="s">
         <v>532</v>
       </c>
       <c r="C12" s="410"/>
-      <c r="D12" s="404"/>
+      <c r="D12" s="411"/>
       <c r="E12" s="410"/>
-      <c r="F12" s="404"/>
+      <c r="F12" s="411"/>
       <c r="G12" s="410"/>
-      <c r="H12" s="404"/>
+      <c r="H12" s="411"/>
       <c r="I12" s="410"/>
-      <c r="J12" s="404"/>
+      <c r="J12" s="411"/>
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="373"/>
       <c r="B13" s="375" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="408"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="408"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="408"/>
+      <c r="C13" s="409"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="409"/>
+      <c r="F13" s="409"/>
+      <c r="G13" s="409"/>
+      <c r="H13" s="409"/>
+      <c r="I13" s="409"/>
+      <c r="J13" s="409"/>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A14" s="227"/>
-      <c r="B14" s="405" t="s">
+      <c r="B14" s="412" t="s">
         <v>531</v>
       </c>
-      <c r="C14" s="404"/>
-      <c r="D14" s="404"/>
-      <c r="E14" s="404"/>
-      <c r="F14" s="404"/>
-      <c r="G14" s="404"/>
-      <c r="H14" s="404"/>
-      <c r="I14" s="404"/>
-      <c r="J14" s="404"/>
+      <c r="C14" s="411"/>
+      <c r="D14" s="411"/>
+      <c r="E14" s="411"/>
+      <c r="F14" s="411"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="411"/>
+      <c r="I14" s="411"/>
+      <c r="J14" s="411"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A15" s="227"/>
-      <c r="B15" s="406"/>
-      <c r="C15" s="404"/>
-      <c r="D15" s="404"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="404"/>
-      <c r="G15" s="404"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="404"/>
-      <c r="J15" s="404"/>
+      <c r="B15" s="413"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="411"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A16" s="227"/>
-      <c r="B16" s="406"/>
-      <c r="C16" s="404"/>
-      <c r="D16" s="404"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
-      <c r="G16" s="404"/>
-      <c r="H16" s="404"/>
-      <c r="I16" s="404"/>
-      <c r="J16" s="404"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="411"/>
+      <c r="D16" s="411"/>
+      <c r="E16" s="411"/>
+      <c r="F16" s="411"/>
+      <c r="G16" s="411"/>
+      <c r="H16" s="411"/>
+      <c r="I16" s="411"/>
+      <c r="J16" s="411"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A17" s="227"/>
-      <c r="B17" s="406"/>
-      <c r="C17" s="404"/>
-      <c r="D17" s="404"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
-      <c r="G17" s="404"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="404"/>
-      <c r="J17" s="404"/>
+      <c r="B17" s="413"/>
+      <c r="C17" s="411"/>
+      <c r="D17" s="411"/>
+      <c r="E17" s="411"/>
+      <c r="F17" s="411"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="411"/>
+      <c r="I17" s="411"/>
+      <c r="J17" s="411"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A18" s="227"/>
-      <c r="B18" s="406"/>
-      <c r="C18" s="404"/>
-      <c r="D18" s="404"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="404"/>
-      <c r="I18" s="404"/>
-      <c r="J18" s="404"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="411"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="411"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="411"/>
+      <c r="J18" s="411"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A19" s="227"/>
-      <c r="B19" s="406"/>
-      <c r="C19" s="404"/>
-      <c r="D19" s="404"/>
-      <c r="E19" s="404"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="404"/>
-      <c r="H19" s="404"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="404"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="411"/>
+      <c r="D19" s="411"/>
+      <c r="E19" s="411"/>
+      <c r="F19" s="411"/>
+      <c r="G19" s="411"/>
+      <c r="H19" s="411"/>
+      <c r="I19" s="411"/>
+      <c r="J19" s="411"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A20" s="227"/>
-      <c r="B20" s="406"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="404"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="404"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="411"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="411"/>
+      <c r="J20" s="411"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A21" s="227"/>
-      <c r="B21" s="406"/>
-      <c r="C21" s="404"/>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="404"/>
+      <c r="B21" s="413"/>
+      <c r="C21" s="411"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="411"/>
+      <c r="H21" s="411"/>
+      <c r="I21" s="411"/>
+      <c r="J21" s="411"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A22" s="227"/>
-      <c r="B22" s="406"/>
-      <c r="C22" s="404"/>
-      <c r="D22" s="404"/>
-      <c r="E22" s="404"/>
-      <c r="F22" s="404"/>
-      <c r="G22" s="404"/>
-      <c r="H22" s="404"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="404"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="411"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A23" s="227"/>
-      <c r="B23" s="406"/>
-      <c r="C23" s="404"/>
-      <c r="D23" s="404"/>
-      <c r="E23" s="404"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="404"/>
-      <c r="H23" s="404"/>
-      <c r="I23" s="404"/>
-      <c r="J23" s="404"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="411"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="411"/>
+      <c r="H23" s="411"/>
+      <c r="I23" s="411"/>
+      <c r="J23" s="411"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A24" s="227"/>
-      <c r="B24" s="407"/>
-      <c r="C24" s="404"/>
-      <c r="D24" s="404"/>
-      <c r="E24" s="404"/>
-      <c r="F24" s="404"/>
-      <c r="G24" s="404"/>
-      <c r="H24" s="404"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="404"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="411"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="411"/>
+      <c r="G24" s="411"/>
+      <c r="H24" s="411"/>
+      <c r="I24" s="411"/>
+      <c r="J24" s="411"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A25" s="373"/>
@@ -11264,21 +11264,11 @@
     <row r="82" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C14:D24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="E14:F24"/>
+    <mergeCell ref="G14:H24"/>
+    <mergeCell ref="I14:J24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -11295,11 +11285,21 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C14:D24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="E14:F24"/>
-    <mergeCell ref="G14:H24"/>
-    <mergeCell ref="I14:J24"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:K2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -11324,8 +11324,8 @@
   </sheetPr>
   <dimension ref="A1:CX107"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A64" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView view="pageLayout" topLeftCell="A71" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.5" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -18003,7 +18003,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A24" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -18016,42 +18016,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="391" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397" t="s">
+      <c r="C1" s="391"/>
+      <c r="D1" s="391" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="434" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="450" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="397" t="s">
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="391" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
-      <c r="I2" s="434"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -18092,543 +18092,543 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="200"/>
-      <c r="C5" s="447" t="s">
+      <c r="C5" s="436" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="448"/>
-      <c r="E5" s="449" t="s">
+      <c r="D5" s="437"/>
+      <c r="E5" s="438" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="450"/>
-      <c r="G5" s="447" t="s">
+      <c r="F5" s="439"/>
+      <c r="G5" s="436" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="448"/>
-      <c r="I5" s="449" t="s">
+      <c r="H5" s="437"/>
+      <c r="I5" s="438" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="450"/>
-      <c r="K5" s="447" t="s">
+      <c r="J5" s="439"/>
+      <c r="K5" s="436" t="s">
         <v>249</v>
       </c>
-      <c r="L5" s="448"/>
-      <c r="M5" s="449" t="s">
+      <c r="L5" s="437"/>
+      <c r="M5" s="438" t="s">
         <v>323</v>
       </c>
-      <c r="N5" s="450"/>
+      <c r="N5" s="439"/>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="445" t="s">
+      <c r="C6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="446"/>
-      <c r="E6" s="445" t="s">
+      <c r="D6" s="443"/>
+      <c r="E6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="446"/>
-      <c r="G6" s="445" t="s">
+      <c r="F6" s="443"/>
+      <c r="G6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="446"/>
-      <c r="I6" s="445" t="s">
+      <c r="H6" s="443"/>
+      <c r="I6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="446"/>
-      <c r="K6" s="445" t="s">
+      <c r="J6" s="443"/>
+      <c r="K6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="446"/>
-      <c r="M6" s="445" t="s">
+      <c r="L6" s="443"/>
+      <c r="M6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="446"/>
+      <c r="N6" s="443"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="275" t="s">
         <v>499</v>
       </c>
-      <c r="C7" s="439"/>
-      <c r="D7" s="440"/>
-      <c r="E7" s="439"/>
-      <c r="F7" s="440"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="440"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="440"/>
-      <c r="K7" s="439"/>
-      <c r="L7" s="440"/>
-      <c r="M7" s="439"/>
-      <c r="N7" s="440"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="441"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="440"/>
+      <c r="H7" s="441"/>
+      <c r="I7" s="440"/>
+      <c r="J7" s="441"/>
+      <c r="K7" s="440"/>
+      <c r="L7" s="441"/>
+      <c r="M7" s="440"/>
+      <c r="N7" s="441"/>
     </row>
     <row r="8" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="437"/>
-      <c r="D8" s="438"/>
-      <c r="E8" s="437"/>
-      <c r="F8" s="438"/>
-      <c r="G8" s="437"/>
-      <c r="H8" s="438"/>
-      <c r="I8" s="437"/>
-      <c r="J8" s="438"/>
-      <c r="K8" s="437"/>
-      <c r="L8" s="438"/>
-      <c r="M8" s="437"/>
-      <c r="N8" s="438"/>
+      <c r="C8" s="434"/>
+      <c r="D8" s="435"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="435"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="435"/>
+      <c r="I8" s="434"/>
+      <c r="J8" s="435"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="435"/>
+      <c r="M8" s="434"/>
+      <c r="N8" s="435"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="275" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="380"/>
-      <c r="K9" s="379"/>
-      <c r="L9" s="380"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="380"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="402"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="402"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="402"/>
+      <c r="N9" s="403"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="437"/>
-      <c r="D10" s="438"/>
-      <c r="E10" s="437"/>
-      <c r="F10" s="438"/>
-      <c r="G10" s="437"/>
-      <c r="H10" s="438"/>
-      <c r="I10" s="437"/>
-      <c r="J10" s="438"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="438"/>
-      <c r="M10" s="437"/>
-      <c r="N10" s="438"/>
+      <c r="C10" s="434"/>
+      <c r="D10" s="435"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="434"/>
+      <c r="J10" s="435"/>
+      <c r="K10" s="434"/>
+      <c r="L10" s="435"/>
+      <c r="M10" s="434"/>
+      <c r="N10" s="435"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="441"/>
-      <c r="D11" s="442"/>
-      <c r="E11" s="441"/>
-      <c r="F11" s="442"/>
-      <c r="G11" s="441"/>
-      <c r="H11" s="442"/>
-      <c r="I11" s="441"/>
-      <c r="J11" s="442"/>
-      <c r="K11" s="441"/>
-      <c r="L11" s="442"/>
-      <c r="M11" s="441"/>
-      <c r="N11" s="442"/>
+      <c r="C11" s="444"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="445"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="445"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="445"/>
+      <c r="K11" s="444"/>
+      <c r="L11" s="445"/>
+      <c r="M11" s="444"/>
+      <c r="N11" s="445"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="443"/>
-      <c r="D12" s="444"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="443"/>
-      <c r="J12" s="444"/>
-      <c r="K12" s="443"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="443"/>
-      <c r="N12" s="444"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="446"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="447"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="447"/>
+      <c r="K12" s="446"/>
+      <c r="L12" s="447"/>
+      <c r="M12" s="446"/>
+      <c r="N12" s="447"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="379"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="380"/>
-      <c r="I13" s="379"/>
-      <c r="J13" s="380"/>
-      <c r="K13" s="379"/>
-      <c r="L13" s="380"/>
-      <c r="M13" s="379"/>
-      <c r="N13" s="380"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="403"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="403"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="403"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="403"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="437"/>
-      <c r="D14" s="438"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="438"/>
-      <c r="G14" s="437"/>
-      <c r="H14" s="438"/>
-      <c r="I14" s="437"/>
-      <c r="J14" s="438"/>
-      <c r="K14" s="437"/>
-      <c r="L14" s="438"/>
-      <c r="M14" s="437"/>
-      <c r="N14" s="438"/>
+      <c r="C14" s="434"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="434"/>
+      <c r="F14" s="435"/>
+      <c r="G14" s="434"/>
+      <c r="H14" s="435"/>
+      <c r="I14" s="434"/>
+      <c r="J14" s="435"/>
+      <c r="K14" s="434"/>
+      <c r="L14" s="435"/>
+      <c r="M14" s="434"/>
+      <c r="N14" s="435"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="379"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="379"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="379"/>
-      <c r="L15" s="380"/>
-      <c r="M15" s="379"/>
-      <c r="N15" s="380"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="403"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="403"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="403"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B16" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="435"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="435"/>
-      <c r="F16" s="436"/>
-      <c r="G16" s="435"/>
-      <c r="H16" s="436"/>
-      <c r="I16" s="435"/>
-      <c r="J16" s="436"/>
-      <c r="K16" s="435"/>
-      <c r="L16" s="436"/>
-      <c r="M16" s="435"/>
-      <c r="N16" s="436"/>
+      <c r="C16" s="448"/>
+      <c r="D16" s="449"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="448"/>
+      <c r="H16" s="449"/>
+      <c r="I16" s="448"/>
+      <c r="J16" s="449"/>
+      <c r="K16" s="448"/>
+      <c r="L16" s="449"/>
+      <c r="M16" s="448"/>
+      <c r="N16" s="449"/>
     </row>
     <row r="17" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="439"/>
-      <c r="D17" s="440"/>
-      <c r="E17" s="439"/>
-      <c r="F17" s="440"/>
-      <c r="G17" s="439"/>
-      <c r="H17" s="440"/>
-      <c r="I17" s="439"/>
-      <c r="J17" s="440"/>
-      <c r="K17" s="439"/>
-      <c r="L17" s="440"/>
-      <c r="M17" s="439"/>
-      <c r="N17" s="440"/>
+      <c r="C17" s="440"/>
+      <c r="D17" s="441"/>
+      <c r="E17" s="440"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="440"/>
+      <c r="H17" s="441"/>
+      <c r="I17" s="440"/>
+      <c r="J17" s="441"/>
+      <c r="K17" s="440"/>
+      <c r="L17" s="441"/>
+      <c r="M17" s="440"/>
+      <c r="N17" s="441"/>
     </row>
     <row r="18" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="437"/>
-      <c r="D18" s="438"/>
-      <c r="E18" s="437"/>
-      <c r="F18" s="438"/>
-      <c r="G18" s="437"/>
-      <c r="H18" s="438"/>
-      <c r="I18" s="437"/>
-      <c r="J18" s="438"/>
-      <c r="K18" s="437"/>
-      <c r="L18" s="438"/>
-      <c r="M18" s="437"/>
-      <c r="N18" s="438"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="435"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="434"/>
+      <c r="H18" s="435"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="435"/>
+      <c r="K18" s="434"/>
+      <c r="L18" s="435"/>
+      <c r="M18" s="434"/>
+      <c r="N18" s="435"/>
     </row>
     <row r="19" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="379"/>
-      <c r="D19" s="380"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="379"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="379"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="379"/>
-      <c r="N19" s="380"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="402"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="402"/>
+      <c r="L19" s="403"/>
+      <c r="M19" s="402"/>
+      <c r="N19" s="403"/>
     </row>
     <row r="20" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="437"/>
-      <c r="D20" s="438"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="438"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
-      <c r="M20" s="437"/>
-      <c r="N20" s="438"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="435"/>
+      <c r="E20" s="434"/>
+      <c r="F20" s="435"/>
+      <c r="G20" s="434"/>
+      <c r="H20" s="435"/>
+      <c r="I20" s="434"/>
+      <c r="J20" s="435"/>
+      <c r="K20" s="434"/>
+      <c r="L20" s="435"/>
+      <c r="M20" s="434"/>
+      <c r="N20" s="435"/>
     </row>
     <row r="21" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B21" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="441"/>
-      <c r="D21" s="442"/>
-      <c r="E21" s="441"/>
-      <c r="F21" s="442"/>
-      <c r="G21" s="441"/>
-      <c r="H21" s="442"/>
-      <c r="I21" s="441"/>
-      <c r="J21" s="442"/>
-      <c r="K21" s="441"/>
-      <c r="L21" s="442"/>
-      <c r="M21" s="441"/>
-      <c r="N21" s="442"/>
+      <c r="C21" s="444"/>
+      <c r="D21" s="445"/>
+      <c r="E21" s="444"/>
+      <c r="F21" s="445"/>
+      <c r="G21" s="444"/>
+      <c r="H21" s="445"/>
+      <c r="I21" s="444"/>
+      <c r="J21" s="445"/>
+      <c r="K21" s="444"/>
+      <c r="L21" s="445"/>
+      <c r="M21" s="444"/>
+      <c r="N21" s="445"/>
     </row>
     <row r="22" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="443"/>
-      <c r="D22" s="444"/>
-      <c r="E22" s="443"/>
-      <c r="F22" s="444"/>
-      <c r="G22" s="443"/>
-      <c r="H22" s="444"/>
-      <c r="I22" s="443"/>
-      <c r="J22" s="444"/>
-      <c r="K22" s="443"/>
-      <c r="L22" s="444"/>
-      <c r="M22" s="443"/>
-      <c r="N22" s="444"/>
+      <c r="C22" s="446"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="446"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="446"/>
+      <c r="H22" s="447"/>
+      <c r="I22" s="446"/>
+      <c r="J22" s="447"/>
+      <c r="K22" s="446"/>
+      <c r="L22" s="447"/>
+      <c r="M22" s="446"/>
+      <c r="N22" s="447"/>
     </row>
     <row r="23" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="379"/>
-      <c r="D23" s="380"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="379"/>
-      <c r="H23" s="380"/>
-      <c r="I23" s="379"/>
-      <c r="J23" s="380"/>
-      <c r="K23" s="379"/>
-      <c r="L23" s="380"/>
-      <c r="M23" s="379"/>
-      <c r="N23" s="380"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="402"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="402"/>
+      <c r="J23" s="403"/>
+      <c r="K23" s="402"/>
+      <c r="L23" s="403"/>
+      <c r="M23" s="402"/>
+      <c r="N23" s="403"/>
     </row>
     <row r="24" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="278"/>
-      <c r="C24" s="437"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="437"/>
-      <c r="F24" s="438"/>
-      <c r="G24" s="437"/>
-      <c r="H24" s="438"/>
-      <c r="I24" s="437"/>
-      <c r="J24" s="438"/>
-      <c r="K24" s="437"/>
-      <c r="L24" s="438"/>
-      <c r="M24" s="437"/>
-      <c r="N24" s="438"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="434"/>
+      <c r="F24" s="435"/>
+      <c r="G24" s="434"/>
+      <c r="H24" s="435"/>
+      <c r="I24" s="434"/>
+      <c r="J24" s="435"/>
+      <c r="K24" s="434"/>
+      <c r="L24" s="435"/>
+      <c r="M24" s="434"/>
+      <c r="N24" s="435"/>
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="275"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="379"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="379"/>
-      <c r="H25" s="380"/>
-      <c r="I25" s="379"/>
-      <c r="J25" s="380"/>
-      <c r="K25" s="379"/>
-      <c r="L25" s="380"/>
-      <c r="M25" s="379"/>
-      <c r="N25" s="380"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="402"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="402"/>
+      <c r="J25" s="403"/>
+      <c r="K25" s="402"/>
+      <c r="L25" s="403"/>
+      <c r="M25" s="402"/>
+      <c r="N25" s="403"/>
     </row>
     <row r="26" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B26" s="280"/>
-      <c r="C26" s="435"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="435"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="435"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="435"/>
-      <c r="J26" s="436"/>
-      <c r="K26" s="435"/>
-      <c r="L26" s="436"/>
-      <c r="M26" s="435"/>
-      <c r="N26" s="436"/>
+      <c r="C26" s="448"/>
+      <c r="D26" s="449"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="448"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="448"/>
+      <c r="J26" s="449"/>
+      <c r="K26" s="448"/>
+      <c r="L26" s="449"/>
+      <c r="M26" s="448"/>
+      <c r="N26" s="449"/>
     </row>
     <row r="27" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="277"/>
-      <c r="C27" s="439"/>
-      <c r="D27" s="440"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="440"/>
-      <c r="G27" s="439"/>
-      <c r="H27" s="440"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="440"/>
-      <c r="K27" s="439"/>
-      <c r="L27" s="440"/>
-      <c r="M27" s="439"/>
-      <c r="N27" s="440"/>
+      <c r="C27" s="440"/>
+      <c r="D27" s="441"/>
+      <c r="E27" s="440"/>
+      <c r="F27" s="441"/>
+      <c r="G27" s="440"/>
+      <c r="H27" s="441"/>
+      <c r="I27" s="440"/>
+      <c r="J27" s="441"/>
+      <c r="K27" s="440"/>
+      <c r="L27" s="441"/>
+      <c r="M27" s="440"/>
+      <c r="N27" s="441"/>
     </row>
     <row r="28" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B28" s="278"/>
-      <c r="C28" s="437"/>
-      <c r="D28" s="438"/>
-      <c r="E28" s="437"/>
-      <c r="F28" s="438"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
-      <c r="I28" s="437"/>
-      <c r="J28" s="438"/>
-      <c r="K28" s="437"/>
-      <c r="L28" s="438"/>
-      <c r="M28" s="437"/>
-      <c r="N28" s="380"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="434"/>
+      <c r="F28" s="435"/>
+      <c r="G28" s="434"/>
+      <c r="H28" s="435"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="435"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="435"/>
+      <c r="M28" s="434"/>
+      <c r="N28" s="403"/>
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="275"/>
-      <c r="C29" s="379"/>
-      <c r="D29" s="380"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="380"/>
-      <c r="G29" s="379"/>
-      <c r="H29" s="380"/>
-      <c r="I29" s="379"/>
-      <c r="J29" s="380"/>
-      <c r="K29" s="379"/>
-      <c r="L29" s="380"/>
-      <c r="M29" s="379"/>
-      <c r="N29" s="380"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="402"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="402"/>
+      <c r="J29" s="403"/>
+      <c r="K29" s="402"/>
+      <c r="L29" s="403"/>
+      <c r="M29" s="402"/>
+      <c r="N29" s="403"/>
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="278"/>
-      <c r="C30" s="437"/>
-      <c r="D30" s="438"/>
-      <c r="E30" s="437"/>
-      <c r="F30" s="438"/>
-      <c r="G30" s="437"/>
-      <c r="H30" s="438"/>
-      <c r="I30" s="437"/>
-      <c r="J30" s="438"/>
-      <c r="K30" s="437"/>
-      <c r="L30" s="438"/>
-      <c r="M30" s="437"/>
-      <c r="N30" s="438"/>
+      <c r="C30" s="434"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="434"/>
+      <c r="F30" s="435"/>
+      <c r="G30" s="434"/>
+      <c r="H30" s="435"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="435"/>
+      <c r="K30" s="434"/>
+      <c r="L30" s="435"/>
+      <c r="M30" s="434"/>
+      <c r="N30" s="435"/>
     </row>
     <row r="31" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B31" s="276"/>
-      <c r="C31" s="441"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="441"/>
-      <c r="F31" s="442"/>
-      <c r="G31" s="441"/>
-      <c r="H31" s="442"/>
-      <c r="I31" s="441"/>
-      <c r="J31" s="442"/>
-      <c r="K31" s="441"/>
-      <c r="L31" s="442"/>
-      <c r="M31" s="441"/>
-      <c r="N31" s="442"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="444"/>
+      <c r="F31" s="445"/>
+      <c r="G31" s="444"/>
+      <c r="H31" s="445"/>
+      <c r="I31" s="444"/>
+      <c r="J31" s="445"/>
+      <c r="K31" s="444"/>
+      <c r="L31" s="445"/>
+      <c r="M31" s="444"/>
+      <c r="N31" s="445"/>
     </row>
     <row r="32" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="279"/>
-      <c r="C32" s="443"/>
-      <c r="D32" s="444"/>
-      <c r="E32" s="443"/>
-      <c r="F32" s="444"/>
-      <c r="G32" s="443"/>
-      <c r="H32" s="444"/>
-      <c r="I32" s="443"/>
-      <c r="J32" s="444"/>
-      <c r="K32" s="443"/>
-      <c r="L32" s="444"/>
-      <c r="M32" s="443"/>
-      <c r="N32" s="444"/>
+      <c r="C32" s="446"/>
+      <c r="D32" s="447"/>
+      <c r="E32" s="446"/>
+      <c r="F32" s="447"/>
+      <c r="G32" s="446"/>
+      <c r="H32" s="447"/>
+      <c r="I32" s="446"/>
+      <c r="J32" s="447"/>
+      <c r="K32" s="446"/>
+      <c r="L32" s="447"/>
+      <c r="M32" s="446"/>
+      <c r="N32" s="447"/>
     </row>
     <row r="33" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="277"/>
-      <c r="C33" s="379"/>
-      <c r="D33" s="380"/>
-      <c r="E33" s="379"/>
-      <c r="F33" s="380"/>
-      <c r="G33" s="379"/>
-      <c r="H33" s="380"/>
-      <c r="I33" s="379"/>
-      <c r="J33" s="380"/>
-      <c r="K33" s="379"/>
-      <c r="L33" s="380"/>
-      <c r="M33" s="379"/>
-      <c r="N33" s="380"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="403"/>
+      <c r="E33" s="402"/>
+      <c r="F33" s="403"/>
+      <c r="G33" s="402"/>
+      <c r="H33" s="403"/>
+      <c r="I33" s="402"/>
+      <c r="J33" s="403"/>
+      <c r="K33" s="402"/>
+      <c r="L33" s="403"/>
+      <c r="M33" s="402"/>
+      <c r="N33" s="403"/>
     </row>
     <row r="34" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="279"/>
-      <c r="C34" s="437"/>
-      <c r="D34" s="438"/>
-      <c r="E34" s="437"/>
-      <c r="F34" s="438"/>
-      <c r="G34" s="437"/>
-      <c r="H34" s="438"/>
-      <c r="I34" s="437"/>
-      <c r="J34" s="438"/>
-      <c r="K34" s="437"/>
-      <c r="L34" s="438"/>
-      <c r="M34" s="437"/>
-      <c r="N34" s="438"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="435"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="435"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="435"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
+      <c r="K34" s="434"/>
+      <c r="L34" s="435"/>
+      <c r="M34" s="434"/>
+      <c r="N34" s="435"/>
     </row>
     <row r="35" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="277"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="380"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="380"/>
-      <c r="I35" s="379"/>
-      <c r="J35" s="380"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="380"/>
-      <c r="M35" s="379"/>
-      <c r="N35" s="380"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="402"/>
+      <c r="F35" s="403"/>
+      <c r="G35" s="402"/>
+      <c r="H35" s="403"/>
+      <c r="I35" s="402"/>
+      <c r="J35" s="403"/>
+      <c r="K35" s="402"/>
+      <c r="L35" s="403"/>
+      <c r="M35" s="402"/>
+      <c r="N35" s="403"/>
     </row>
     <row r="36" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B36" s="280"/>
-      <c r="C36" s="435"/>
-      <c r="D36" s="436"/>
-      <c r="E36" s="435"/>
-      <c r="F36" s="436"/>
-      <c r="G36" s="435"/>
-      <c r="H36" s="436"/>
-      <c r="I36" s="435"/>
-      <c r="J36" s="436"/>
-      <c r="K36" s="435"/>
-      <c r="L36" s="436"/>
-      <c r="M36" s="435"/>
-      <c r="N36" s="436"/>
+      <c r="C36" s="448"/>
+      <c r="D36" s="449"/>
+      <c r="E36" s="448"/>
+      <c r="F36" s="449"/>
+      <c r="G36" s="448"/>
+      <c r="H36" s="449"/>
+      <c r="I36" s="448"/>
+      <c r="J36" s="449"/>
+      <c r="K36" s="448"/>
+      <c r="L36" s="449"/>
+      <c r="M36" s="448"/>
+      <c r="N36" s="449"/>
     </row>
     <row r="37" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37"/>
@@ -19367,18 +19367,166 @@
     <row r="86" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C12:D12"/>
@@ -19403,166 +19551,18 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -19586,7 +19586,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A18" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -19607,25 +19607,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="471" t="s">
+      <c r="A1" s="457" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="471" t="s">
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="471"/>
-      <c r="F1" s="471" t="s">
+      <c r="E1" s="457"/>
+      <c r="F1" s="457" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="471"/>
-      <c r="H1" s="471"/>
-      <c r="I1" s="471" t="s">
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="471"/>
-      <c r="K1" s="471"/>
+      <c r="J1" s="457"/>
+      <c r="K1" s="457"/>
     </row>
     <row r="2" spans="1:11" ht="7" customHeight="1">
       <c r="A2" s="16"/>
@@ -19662,52 +19662,52 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1">
-      <c r="A5" s="476" t="s">
+      <c r="A5" s="462" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="477"/>
-      <c r="C5" s="474" t="s">
+      <c r="B5" s="463"/>
+      <c r="C5" s="460" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="483"/>
-      <c r="E5" s="484" t="s">
+      <c r="D5" s="469"/>
+      <c r="E5" s="470" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="456"/>
-      <c r="G5" s="474" t="s">
+      <c r="F5" s="471"/>
+      <c r="G5" s="460" t="s">
         <v>442</v>
       </c>
-      <c r="H5" s="480"/>
-      <c r="I5" s="474" t="s">
+      <c r="H5" s="466"/>
+      <c r="I5" s="460" t="s">
         <v>443</v>
       </c>
-      <c r="J5" s="475"/>
+      <c r="J5" s="461"/>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A6" s="478"/>
-      <c r="B6" s="479"/>
-      <c r="C6" s="481" t="s">
+      <c r="A6" s="464"/>
+      <c r="B6" s="465"/>
+      <c r="C6" s="467" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="482"/>
-      <c r="E6" s="481" t="s">
+      <c r="D6" s="468"/>
+      <c r="E6" s="467" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="482"/>
-      <c r="G6" s="472" t="s">
+      <c r="F6" s="468"/>
+      <c r="G6" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="473"/>
-      <c r="I6" s="472" t="s">
+      <c r="H6" s="459"/>
+      <c r="I6" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="473"/>
+      <c r="J6" s="459"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="472" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="464"/>
+      <c r="B7" s="473"/>
       <c r="C7" s="136"/>
       <c r="D7" s="137"/>
       <c r="E7" s="136"/>
@@ -19718,10 +19718,10 @@
       <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="465" t="s">
+      <c r="A8" s="474" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="466"/>
+      <c r="B8" s="475"/>
       <c r="C8" s="281"/>
       <c r="D8" s="282"/>
       <c r="E8" s="281"/>
@@ -19732,10 +19732,10 @@
       <c r="J8" s="282"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="467" t="s">
+      <c r="A9" s="476" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="468"/>
+      <c r="B9" s="477"/>
       <c r="C9" s="4"/>
       <c r="D9" s="135"/>
       <c r="E9" s="4"/>
@@ -19746,10 +19746,10 @@
       <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="469" t="s">
+      <c r="A10" s="478" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="470"/>
+      <c r="B10" s="479"/>
       <c r="C10" s="284"/>
       <c r="D10" s="285"/>
       <c r="E10" s="284"/>
@@ -19760,10 +19760,10 @@
       <c r="J10" s="285"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="459" t="s">
+      <c r="A11" s="480" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="460"/>
+      <c r="B11" s="481"/>
       <c r="C11" s="4"/>
       <c r="D11" s="135"/>
       <c r="E11" s="4"/>
@@ -19774,8 +19774,8 @@
       <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="457"/>
-      <c r="B12" s="458"/>
+      <c r="A12" s="451"/>
+      <c r="B12" s="452"/>
       <c r="C12" s="281"/>
       <c r="D12" s="282"/>
       <c r="E12" s="281"/>
@@ -19798,8 +19798,8 @@
       <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="451"/>
-      <c r="B14" s="452"/>
+      <c r="A14" s="455"/>
+      <c r="B14" s="456"/>
       <c r="C14" s="284"/>
       <c r="D14" s="285"/>
       <c r="E14" s="284"/>
@@ -19810,10 +19810,10 @@
       <c r="J14" s="285"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="459" t="s">
+      <c r="A15" s="480" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="460"/>
+      <c r="B15" s="481"/>
       <c r="C15" s="138"/>
       <c r="D15" s="139"/>
       <c r="E15" s="138"/>
@@ -19824,10 +19824,10 @@
       <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="461" t="s">
+      <c r="A16" s="482" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="462"/>
+      <c r="B16" s="483"/>
       <c r="C16" s="281"/>
       <c r="D16" s="282"/>
       <c r="E16" s="281"/>
@@ -19850,8 +19850,8 @@
       <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="451"/>
-      <c r="B18" s="452"/>
+      <c r="A18" s="455"/>
+      <c r="B18" s="456"/>
       <c r="C18" s="284"/>
       <c r="D18" s="285"/>
       <c r="E18" s="284"/>
@@ -19862,8 +19862,8 @@
       <c r="J18" s="285"/>
     </row>
     <row r="19" spans="1:18" ht="18" customHeight="1">
-      <c r="A19" s="455"/>
-      <c r="B19" s="456"/>
+      <c r="A19" s="484"/>
+      <c r="B19" s="471"/>
       <c r="C19" s="2"/>
       <c r="D19" s="175"/>
       <c r="E19" s="2"/>
@@ -19874,8 +19874,8 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:18" ht="18" customHeight="1">
-      <c r="A20" s="457"/>
-      <c r="B20" s="458"/>
+      <c r="A20" s="451"/>
+      <c r="B20" s="452"/>
       <c r="C20" s="281"/>
       <c r="D20" s="282"/>
       <c r="E20" s="281"/>
@@ -19898,8 +19898,8 @@
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="451"/>
-      <c r="B22" s="452"/>
+      <c r="A22" s="455"/>
+      <c r="B22" s="456"/>
       <c r="C22" s="284"/>
       <c r="D22" s="285"/>
       <c r="E22" s="284"/>
@@ -19922,8 +19922,8 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1">
-      <c r="A24" s="457"/>
-      <c r="B24" s="458"/>
+      <c r="A24" s="451"/>
+      <c r="B24" s="452"/>
       <c r="C24" s="281"/>
       <c r="D24" s="282"/>
       <c r="E24" s="281"/>
@@ -19946,8 +19946,8 @@
       <c r="J25" s="135"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="451"/>
-      <c r="B26" s="452"/>
+      <c r="A26" s="455"/>
+      <c r="B26" s="456"/>
       <c r="C26" s="284"/>
       <c r="D26" s="285"/>
       <c r="E26" s="284"/>
@@ -20511,6 +20511,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -20527,22 +20543,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -20565,7 +20565,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -20627,38 +20627,38 @@
     <row r="4" spans="1:19" ht="14" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="492" t="s">
+      <c r="C5" s="498"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="500" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="491"/>
-      <c r="G5" s="490" t="s">
+      <c r="F5" s="501"/>
+      <c r="G5" s="502" t="s">
         <v>239</v>
       </c>
-      <c r="H5" s="492"/>
-      <c r="I5" s="492"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="492"/>
-      <c r="M5" s="491"/>
-      <c r="N5" s="490" t="s">
+      <c r="H5" s="500"/>
+      <c r="I5" s="500"/>
+      <c r="J5" s="500"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="501"/>
+      <c r="N5" s="502" t="s">
         <v>240</v>
       </c>
-      <c r="O5" s="491"/>
+      <c r="O5" s="501"/>
       <c r="P5" s="233" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" s="492" t="s">
+      <c r="Q5" s="500" t="s">
         <v>242</v>
       </c>
-      <c r="R5" s="492"/>
+      <c r="R5" s="500"/>
       <c r="S5" s="232" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24" customHeight="1">
-      <c r="A6" s="500" t="s">
+      <c r="A6" s="495" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="125" t="s">
@@ -20670,24 +20670,24 @@
       <c r="D6" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="404"/>
-      <c r="F6" s="404"/>
-      <c r="G6" s="404"/>
-      <c r="H6" s="404"/>
-      <c r="I6" s="404"/>
-      <c r="J6" s="404"/>
-      <c r="K6" s="404"/>
-      <c r="L6" s="404"/>
-      <c r="M6" s="404"/>
-      <c r="N6" s="404"/>
-      <c r="O6" s="404"/>
+      <c r="E6" s="411"/>
+      <c r="F6" s="411"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="411"/>
+      <c r="I6" s="411"/>
+      <c r="J6" s="411"/>
+      <c r="K6" s="411"/>
+      <c r="L6" s="411"/>
+      <c r="M6" s="411"/>
+      <c r="N6" s="411"/>
+      <c r="O6" s="411"/>
       <c r="P6" s="229"/>
-      <c r="Q6" s="404"/>
-      <c r="R6" s="404"/>
+      <c r="Q6" s="411"/>
+      <c r="R6" s="411"/>
       <c r="S6" s="229"/>
     </row>
     <row r="7" spans="1:19" ht="24" customHeight="1">
-      <c r="A7" s="501"/>
+      <c r="A7" s="488"/>
       <c r="B7" s="287" t="s">
         <v>96</v>
       </c>
@@ -20714,7 +20714,7 @@
       <c r="S7" s="290"/>
     </row>
     <row r="8" spans="1:19" ht="24" customHeight="1">
-      <c r="A8" s="501"/>
+      <c r="A8" s="488"/>
       <c r="B8" s="147" t="s">
         <v>95</v>
       </c>
@@ -20724,24 +20724,24 @@
       <c r="D8" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="404"/>
-      <c r="F8" s="404"/>
-      <c r="G8" s="404"/>
-      <c r="H8" s="404"/>
-      <c r="I8" s="404"/>
-      <c r="J8" s="404"/>
-      <c r="K8" s="404"/>
-      <c r="L8" s="404"/>
-      <c r="M8" s="404"/>
-      <c r="N8" s="404"/>
-      <c r="O8" s="404"/>
+      <c r="E8" s="411"/>
+      <c r="F8" s="411"/>
+      <c r="G8" s="411"/>
+      <c r="H8" s="411"/>
+      <c r="I8" s="411"/>
+      <c r="J8" s="411"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="411"/>
+      <c r="M8" s="411"/>
+      <c r="N8" s="411"/>
+      <c r="O8" s="411"/>
       <c r="P8" s="229"/>
-      <c r="Q8" s="404"/>
-      <c r="R8" s="404"/>
+      <c r="Q8" s="411"/>
+      <c r="R8" s="411"/>
       <c r="S8" s="229"/>
     </row>
     <row r="9" spans="1:19" ht="24" customHeight="1">
-      <c r="A9" s="501"/>
+      <c r="A9" s="488"/>
       <c r="B9" s="287" t="s">
         <v>257</v>
       </c>
@@ -20778,20 +20778,20 @@
       <c r="D10" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="404"/>
-      <c r="I10" s="404"/>
-      <c r="J10" s="404"/>
-      <c r="K10" s="404"/>
-      <c r="L10" s="404"/>
-      <c r="M10" s="404"/>
-      <c r="N10" s="404"/>
-      <c r="O10" s="404"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="411"/>
+      <c r="K10" s="411"/>
+      <c r="L10" s="411"/>
+      <c r="M10" s="411"/>
+      <c r="N10" s="411"/>
+      <c r="O10" s="411"/>
       <c r="P10" s="229"/>
-      <c r="Q10" s="404"/>
-      <c r="R10" s="404"/>
+      <c r="Q10" s="411"/>
+      <c r="R10" s="411"/>
       <c r="S10" s="229"/>
     </row>
     <row r="11" spans="1:19" ht="24" customHeight="1" thickBot="1">
@@ -20805,24 +20805,24 @@
       <c r="D11" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="489"/>
-      <c r="F11" s="489"/>
-      <c r="G11" s="489"/>
-      <c r="H11" s="489"/>
-      <c r="I11" s="489"/>
-      <c r="J11" s="489"/>
-      <c r="K11" s="489"/>
-      <c r="L11" s="489"/>
-      <c r="M11" s="489"/>
-      <c r="N11" s="489"/>
-      <c r="O11" s="489"/>
+      <c r="E11" s="487"/>
+      <c r="F11" s="487"/>
+      <c r="G11" s="487"/>
+      <c r="H11" s="487"/>
+      <c r="I11" s="487"/>
+      <c r="J11" s="487"/>
+      <c r="K11" s="487"/>
+      <c r="L11" s="487"/>
+      <c r="M11" s="487"/>
+      <c r="N11" s="487"/>
+      <c r="O11" s="487"/>
       <c r="P11" s="293"/>
-      <c r="Q11" s="489"/>
-      <c r="R11" s="489"/>
+      <c r="Q11" s="487"/>
+      <c r="R11" s="487"/>
       <c r="S11" s="293"/>
     </row>
     <row r="12" spans="1:19" ht="24" customHeight="1">
-      <c r="A12" s="496" t="s">
+      <c r="A12" s="491" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -20834,24 +20834,24 @@
       <c r="D12" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="488"/>
-      <c r="F12" s="488"/>
-      <c r="G12" s="488"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="488"/>
-      <c r="J12" s="488"/>
-      <c r="K12" s="488"/>
-      <c r="L12" s="488"/>
-      <c r="M12" s="488"/>
-      <c r="N12" s="488"/>
-      <c r="O12" s="488"/>
+      <c r="E12" s="486"/>
+      <c r="F12" s="486"/>
+      <c r="G12" s="486"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="486"/>
+      <c r="K12" s="486"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="486"/>
+      <c r="N12" s="486"/>
+      <c r="O12" s="486"/>
       <c r="P12" s="259"/>
-      <c r="Q12" s="488"/>
-      <c r="R12" s="488"/>
+      <c r="Q12" s="486"/>
+      <c r="R12" s="486"/>
       <c r="S12" s="259"/>
     </row>
     <row r="13" spans="1:19" ht="24" customHeight="1">
-      <c r="A13" s="497"/>
+      <c r="A13" s="492"/>
       <c r="B13" s="287" t="s">
         <v>100</v>
       </c>
@@ -20878,7 +20878,7 @@
       <c r="S13" s="290"/>
     </row>
     <row r="14" spans="1:19" ht="24" customHeight="1">
-      <c r="A14" s="498"/>
+      <c r="A14" s="493"/>
       <c r="B14" s="147" t="s">
         <v>90</v>
       </c>
@@ -20888,24 +20888,24 @@
       <c r="D14" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="502"/>
-      <c r="F14" s="404"/>
-      <c r="G14" s="404"/>
-      <c r="H14" s="404"/>
-      <c r="I14" s="404"/>
-      <c r="J14" s="404"/>
-      <c r="K14" s="404"/>
-      <c r="L14" s="404"/>
-      <c r="M14" s="404"/>
-      <c r="N14" s="404"/>
-      <c r="O14" s="404"/>
+      <c r="E14" s="489"/>
+      <c r="F14" s="411"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="411"/>
+      <c r="I14" s="411"/>
+      <c r="J14" s="411"/>
+      <c r="K14" s="411"/>
+      <c r="L14" s="411"/>
+      <c r="M14" s="411"/>
+      <c r="N14" s="411"/>
+      <c r="O14" s="411"/>
       <c r="P14" s="229"/>
-      <c r="Q14" s="404"/>
-      <c r="R14" s="404"/>
+      <c r="Q14" s="411"/>
+      <c r="R14" s="411"/>
       <c r="S14" s="229"/>
     </row>
     <row r="15" spans="1:19" ht="24" customHeight="1">
-      <c r="A15" s="498"/>
+      <c r="A15" s="493"/>
       <c r="B15" s="287" t="s">
         <v>91</v>
       </c>
@@ -20915,7 +20915,7 @@
       <c r="D15" s="289" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="458"/>
+      <c r="E15" s="452"/>
       <c r="F15" s="485"/>
       <c r="G15" s="485"/>
       <c r="H15" s="485"/>
@@ -20932,23 +20932,23 @@
       <c r="S15" s="290"/>
     </row>
     <row r="16" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="499"/>
+      <c r="A16" s="494"/>
       <c r="B16" s="147"/>
       <c r="C16" s="179"/>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="486"/>
-      <c r="J16" s="486"/>
-      <c r="K16" s="486"/>
-      <c r="L16" s="486"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="486"/>
-      <c r="O16" s="486"/>
+      <c r="E16" s="490"/>
+      <c r="F16" s="490"/>
+      <c r="G16" s="490"/>
+      <c r="H16" s="490"/>
+      <c r="I16" s="490"/>
+      <c r="J16" s="490"/>
+      <c r="K16" s="490"/>
+      <c r="L16" s="490"/>
+      <c r="M16" s="490"/>
+      <c r="N16" s="490"/>
+      <c r="O16" s="490"/>
       <c r="P16" s="231"/>
-      <c r="Q16" s="486"/>
-      <c r="R16" s="486"/>
+      <c r="Q16" s="490"/>
+      <c r="R16" s="490"/>
       <c r="S16" s="231"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1">
@@ -20956,20 +20956,20 @@
       <c r="B17" s="294"/>
       <c r="C17" s="294"/>
       <c r="D17" s="295"/>
-      <c r="E17" s="493"/>
-      <c r="F17" s="493"/>
-      <c r="G17" s="493"/>
-      <c r="H17" s="493"/>
-      <c r="I17" s="493"/>
-      <c r="J17" s="493"/>
-      <c r="K17" s="493"/>
-      <c r="L17" s="493"/>
-      <c r="M17" s="493"/>
-      <c r="N17" s="493"/>
-      <c r="O17" s="493"/>
+      <c r="E17" s="496"/>
+      <c r="F17" s="496"/>
+      <c r="G17" s="496"/>
+      <c r="H17" s="496"/>
+      <c r="I17" s="496"/>
+      <c r="J17" s="496"/>
+      <c r="K17" s="496"/>
+      <c r="L17" s="496"/>
+      <c r="M17" s="496"/>
+      <c r="N17" s="496"/>
+      <c r="O17" s="496"/>
       <c r="P17" s="296"/>
-      <c r="Q17" s="493"/>
-      <c r="R17" s="493"/>
+      <c r="Q17" s="496"/>
+      <c r="R17" s="496"/>
       <c r="S17" s="296"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1">
@@ -20977,25 +20977,25 @@
       <c r="B18" s="177"/>
       <c r="C18" s="274"/>
       <c r="D18" s="262"/>
-      <c r="E18" s="487"/>
-      <c r="F18" s="487"/>
-      <c r="G18" s="487"/>
-      <c r="H18" s="487"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="487"/>
-      <c r="K18" s="487"/>
-      <c r="L18" s="487"/>
-      <c r="M18" s="487"/>
-      <c r="N18" s="487"/>
-      <c r="O18" s="487"/>
+      <c r="E18" s="497"/>
+      <c r="F18" s="497"/>
+      <c r="G18" s="497"/>
+      <c r="H18" s="497"/>
+      <c r="I18" s="497"/>
+      <c r="J18" s="497"/>
+      <c r="K18" s="497"/>
+      <c r="L18" s="497"/>
+      <c r="M18" s="497"/>
+      <c r="N18" s="497"/>
+      <c r="O18" s="497"/>
       <c r="P18" s="230"/>
-      <c r="Q18" s="487"/>
-      <c r="R18" s="487"/>
+      <c r="Q18" s="497"/>
+      <c r="R18" s="497"/>
       <c r="S18" s="230"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="24" customHeight="1">
-      <c r="A19" s="501"/>
+      <c r="A19" s="488"/>
       <c r="B19" s="297"/>
       <c r="C19" s="298"/>
       <c r="D19" s="299"/>
@@ -21016,28 +21016,28 @@
       <c r="S19" s="290"/>
     </row>
     <row r="20" spans="1:20" ht="24" customHeight="1">
-      <c r="A20" s="501"/>
+      <c r="A20" s="488"/>
       <c r="B20" s="177"/>
       <c r="C20" s="178"/>
       <c r="D20" s="92"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="404"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="404"/>
-      <c r="K20" s="404"/>
-      <c r="L20" s="404"/>
-      <c r="M20" s="404"/>
-      <c r="N20" s="404"/>
-      <c r="O20" s="404"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="411"/>
+      <c r="J20" s="411"/>
+      <c r="K20" s="411"/>
+      <c r="L20" s="411"/>
+      <c r="M20" s="411"/>
+      <c r="N20" s="411"/>
+      <c r="O20" s="411"/>
       <c r="P20" s="229"/>
-      <c r="Q20" s="404"/>
-      <c r="R20" s="404"/>
+      <c r="Q20" s="411"/>
+      <c r="R20" s="411"/>
       <c r="S20" s="229"/>
     </row>
     <row r="21" spans="1:20" ht="24" customHeight="1">
-      <c r="A21" s="501"/>
+      <c r="A21" s="488"/>
       <c r="B21" s="297"/>
       <c r="C21" s="298"/>
       <c r="D21" s="299"/>
@@ -21058,29 +21058,29 @@
       <c r="S21" s="290"/>
     </row>
     <row r="22" spans="1:20" ht="24" customHeight="1">
-      <c r="A22" s="501"/>
+      <c r="A22" s="488"/>
       <c r="B22" s="177"/>
       <c r="C22" s="178"/>
       <c r="D22" s="92"/>
-      <c r="E22" s="404"/>
-      <c r="F22" s="404"/>
-      <c r="G22" s="404"/>
-      <c r="H22" s="404"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="404"/>
-      <c r="K22" s="404"/>
-      <c r="L22" s="404"/>
-      <c r="M22" s="404"/>
-      <c r="N22" s="404"/>
-      <c r="O22" s="404"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
+      <c r="K22" s="411"/>
+      <c r="L22" s="411"/>
+      <c r="M22" s="411"/>
+      <c r="N22" s="411"/>
+      <c r="O22" s="411"/>
       <c r="P22" s="229"/>
-      <c r="Q22" s="404"/>
-      <c r="R22" s="404"/>
+      <c r="Q22" s="411"/>
+      <c r="R22" s="411"/>
       <c r="S22" s="229"/>
       <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="24" customHeight="1">
-      <c r="A23" s="501"/>
+      <c r="A23" s="488"/>
       <c r="B23" s="297"/>
       <c r="C23" s="298"/>
       <c r="D23" s="299"/>
@@ -21102,35 +21102,35 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" ht="24" customHeight="1">
-      <c r="A24" s="501"/>
+      <c r="A24" s="488"/>
       <c r="B24" s="177"/>
       <c r="C24" s="178"/>
       <c r="D24" s="92"/>
-      <c r="E24" s="404"/>
-      <c r="F24" s="404"/>
-      <c r="G24" s="404"/>
-      <c r="H24" s="404"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="404"/>
-      <c r="K24" s="404"/>
-      <c r="L24" s="404"/>
-      <c r="M24" s="404"/>
-      <c r="N24" s="404"/>
-      <c r="O24" s="404"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="411"/>
+      <c r="G24" s="411"/>
+      <c r="H24" s="411"/>
+      <c r="I24" s="411"/>
+      <c r="J24" s="411"/>
+      <c r="K24" s="411"/>
+      <c r="L24" s="411"/>
+      <c r="M24" s="411"/>
+      <c r="N24" s="411"/>
+      <c r="O24" s="411"/>
       <c r="P24" s="229"/>
-      <c r="Q24" s="404"/>
-      <c r="R24" s="404"/>
+      <c r="Q24" s="411"/>
+      <c r="R24" s="411"/>
       <c r="S24" s="229"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="24" customHeight="1">
-      <c r="A25" s="501"/>
+      <c r="A25" s="488"/>
       <c r="B25" s="297"/>
       <c r="C25" s="298" t="s">
+        <v>634</v>
+      </c>
+      <c r="D25" s="299" t="s">
         <v>635</v>
-      </c>
-      <c r="D25" s="299" t="s">
-        <v>636</v>
       </c>
       <c r="E25" s="485"/>
       <c r="F25" s="485"/>
@@ -21154,20 +21154,20 @@
       <c r="B26" s="141"/>
       <c r="C26" s="267"/>
       <c r="D26" s="261"/>
-      <c r="E26" s="486"/>
-      <c r="F26" s="486"/>
-      <c r="G26" s="486"/>
-      <c r="H26" s="486"/>
-      <c r="I26" s="486"/>
-      <c r="J26" s="486"/>
-      <c r="K26" s="486"/>
-      <c r="L26" s="486"/>
-      <c r="M26" s="486"/>
-      <c r="N26" s="486"/>
-      <c r="O26" s="486"/>
+      <c r="E26" s="490"/>
+      <c r="F26" s="490"/>
+      <c r="G26" s="490"/>
+      <c r="H26" s="490"/>
+      <c r="I26" s="490"/>
+      <c r="J26" s="490"/>
+      <c r="K26" s="490"/>
+      <c r="L26" s="490"/>
+      <c r="M26" s="490"/>
+      <c r="N26" s="490"/>
+      <c r="O26" s="490"/>
       <c r="P26" s="231"/>
-      <c r="Q26" s="486"/>
-      <c r="R26" s="486"/>
+      <c r="Q26" s="490"/>
+      <c r="R26" s="490"/>
       <c r="S26" s="231"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
@@ -21421,6 +21421,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="G6:M6"/>
@@ -21437,83 +21514,6 @@
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="G7:M7"/>
     <mergeCell ref="G12:M12"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.03" right="0.75" top="0.51" bottom="0.22" header="0" footer="0"/>
@@ -21538,7 +21538,7 @@
   </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -21648,7 +21648,7 @@
         <v>402</v>
       </c>
       <c r="G5" s="505" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H5" s="506"/>
       <c r="I5" s="506"/>
@@ -22272,7 +22272,7 @@
   </sheetPr>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A21" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
@@ -22292,42 +22292,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="391" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397" t="s">
+      <c r="C1" s="391"/>
+      <c r="D1" s="391" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="434" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="450" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="397" t="s">
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="391" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
-      <c r="I2" s="434"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -22368,73 +22368,73 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="200"/>
-      <c r="C5" s="447" t="s">
+      <c r="C5" s="436" t="s">
         <v>566</v>
       </c>
-      <c r="D5" s="448"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="447" t="s">
+      <c r="D5" s="437"/>
+      <c r="E5" s="438"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="436" t="s">
         <v>567</v>
       </c>
-      <c r="H5" s="448"/>
+      <c r="H5" s="437"/>
       <c r="I5" s="358"/>
-      <c r="J5" s="535" t="s">
+      <c r="J5" s="507" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="535"/>
-      <c r="L5" s="537" t="s">
+      <c r="K5" s="507"/>
+      <c r="L5" s="509" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="538"/>
+      <c r="M5" s="510"/>
       <c r="N5" s="359"/>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="341" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="445" t="s">
+      <c r="C6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="446"/>
-      <c r="E6" s="533" t="s">
+      <c r="D6" s="443"/>
+      <c r="E6" s="521" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="534"/>
-      <c r="G6" s="445" t="s">
+      <c r="F6" s="522"/>
+      <c r="G6" s="442" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="446"/>
+      <c r="H6" s="443"/>
       <c r="I6" s="356" t="s">
         <v>568</v>
       </c>
-      <c r="J6" s="536" t="s">
+      <c r="J6" s="508" t="s">
         <v>379</v>
       </c>
-      <c r="K6" s="536"/>
-      <c r="L6" s="539" t="s">
+      <c r="K6" s="508"/>
+      <c r="L6" s="511" t="s">
         <v>379</v>
       </c>
-      <c r="M6" s="540"/>
+      <c r="M6" s="512"/>
       <c r="N6" s="357"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="275" t="s">
         <v>499</v>
       </c>
-      <c r="C7" s="439"/>
-      <c r="D7" s="440"/>
-      <c r="E7" s="525" t="s">
+      <c r="C7" s="440"/>
+      <c r="D7" s="441"/>
+      <c r="E7" s="513" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="526"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="440"/>
+      <c r="F7" s="514"/>
+      <c r="G7" s="440"/>
+      <c r="H7" s="441"/>
       <c r="I7" s="370">
         <v>1</v>
       </c>
-      <c r="J7" s="507"/>
-      <c r="K7" s="507"/>
+      <c r="J7" s="515"/>
+      <c r="K7" s="515"/>
       <c r="L7" s="523"/>
       <c r="M7" s="524"/>
       <c r="N7" s="351"/>
@@ -22443,498 +22443,498 @@
       <c r="B8" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="437"/>
-      <c r="D8" s="438"/>
-      <c r="E8" s="531" t="s">
+      <c r="C8" s="434"/>
+      <c r="D8" s="435"/>
+      <c r="E8" s="529" t="s">
         <v>421</v>
       </c>
-      <c r="F8" s="532"/>
-      <c r="G8" s="437"/>
-      <c r="H8" s="438"/>
+      <c r="F8" s="530"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="435"/>
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="508"/>
-      <c r="K8" s="508"/>
-      <c r="L8" s="515"/>
-      <c r="M8" s="516"/>
+      <c r="J8" s="516"/>
+      <c r="K8" s="516"/>
+      <c r="L8" s="519"/>
+      <c r="M8" s="520"/>
       <c r="N8" s="349"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="275" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="529" t="s">
+      <c r="C9" s="402"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="527" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="530"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="380"/>
+      <c r="F9" s="528"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="403"/>
       <c r="I9" s="362">
         <v>3</v>
       </c>
-      <c r="J9" s="507"/>
-      <c r="K9" s="507"/>
-      <c r="L9" s="513"/>
-      <c r="M9" s="514"/>
+      <c r="J9" s="515"/>
+      <c r="K9" s="515"/>
+      <c r="L9" s="517"/>
+      <c r="M9" s="518"/>
       <c r="N9" s="345"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B10" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="437"/>
-      <c r="D10" s="438"/>
-      <c r="E10" s="527" t="s">
+      <c r="C10" s="434"/>
+      <c r="D10" s="435"/>
+      <c r="E10" s="525" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="528"/>
-      <c r="G10" s="437"/>
-      <c r="H10" s="438"/>
+      <c r="F10" s="526"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="435"/>
       <c r="I10" s="364">
         <v>4</v>
       </c>
-      <c r="J10" s="508"/>
-      <c r="K10" s="508"/>
-      <c r="L10" s="515"/>
-      <c r="M10" s="516"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="520"/>
       <c r="N10" s="349"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="441"/>
-      <c r="D11" s="442"/>
-      <c r="E11" s="525" t="s">
+      <c r="C11" s="444"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="513" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="526"/>
-      <c r="G11" s="441"/>
-      <c r="H11" s="442"/>
+      <c r="F11" s="514"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="445"/>
       <c r="I11" s="368">
         <v>5</v>
       </c>
-      <c r="J11" s="507"/>
-      <c r="K11" s="507"/>
-      <c r="L11" s="509"/>
-      <c r="M11" s="510"/>
+      <c r="J11" s="515"/>
+      <c r="K11" s="515"/>
+      <c r="L11" s="531"/>
+      <c r="M11" s="532"/>
       <c r="N11" s="353"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B12" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="443"/>
-      <c r="D12" s="444"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="444"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="446"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="447"/>
       <c r="I12" s="366">
         <v>6</v>
       </c>
-      <c r="J12" s="508"/>
-      <c r="K12" s="508"/>
-      <c r="L12" s="511"/>
-      <c r="M12" s="512"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="533"/>
+      <c r="M12" s="534"/>
       <c r="N12" s="355"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="521" t="s">
+      <c r="C13" s="402"/>
+      <c r="D13" s="403"/>
+      <c r="E13" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="522"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="380"/>
+      <c r="F13" s="540"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="403"/>
       <c r="I13" s="362">
         <v>7</v>
       </c>
-      <c r="J13" s="507"/>
-      <c r="K13" s="507"/>
-      <c r="L13" s="513"/>
-      <c r="M13" s="514"/>
+      <c r="J13" s="515"/>
+      <c r="K13" s="515"/>
+      <c r="L13" s="517"/>
+      <c r="M13" s="518"/>
       <c r="N13" s="345"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B14" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="437"/>
-      <c r="D14" s="438"/>
-      <c r="E14" s="519" t="s">
+      <c r="C14" s="434"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="537" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="520"/>
-      <c r="G14" s="437"/>
-      <c r="H14" s="438"/>
+      <c r="F14" s="538"/>
+      <c r="G14" s="434"/>
+      <c r="H14" s="435"/>
       <c r="I14" s="364">
         <v>8</v>
       </c>
-      <c r="J14" s="508"/>
-      <c r="K14" s="508"/>
-      <c r="L14" s="515"/>
-      <c r="M14" s="516"/>
+      <c r="J14" s="516"/>
+      <c r="K14" s="516"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="520"/>
       <c r="N14" s="349"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="379"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="380"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="403"/>
       <c r="I15" s="362">
         <v>9</v>
       </c>
-      <c r="J15" s="507"/>
-      <c r="K15" s="507"/>
-      <c r="L15" s="513"/>
-      <c r="M15" s="514"/>
+      <c r="J15" s="515"/>
+      <c r="K15" s="515"/>
+      <c r="L15" s="517"/>
+      <c r="M15" s="518"/>
       <c r="N15" s="345"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B16" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="435"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="435"/>
-      <c r="F16" s="436"/>
-      <c r="G16" s="435"/>
-      <c r="H16" s="436"/>
+      <c r="C16" s="448"/>
+      <c r="D16" s="449"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="448"/>
+      <c r="H16" s="449"/>
       <c r="I16" s="360">
         <v>10</v>
       </c>
-      <c r="J16" s="508"/>
-      <c r="K16" s="508"/>
-      <c r="L16" s="517"/>
-      <c r="M16" s="518"/>
+      <c r="J16" s="516"/>
+      <c r="K16" s="516"/>
+      <c r="L16" s="535"/>
+      <c r="M16" s="536"/>
       <c r="N16" s="347"/>
     </row>
     <row r="17" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="439"/>
-      <c r="D17" s="440"/>
-      <c r="E17" s="439"/>
-      <c r="F17" s="440"/>
-      <c r="G17" s="439"/>
-      <c r="H17" s="440"/>
+      <c r="C17" s="440"/>
+      <c r="D17" s="441"/>
+      <c r="E17" s="440"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="440"/>
+      <c r="H17" s="441"/>
       <c r="I17" s="370"/>
       <c r="J17" s="371"/>
-      <c r="K17" s="439"/>
-      <c r="L17" s="440"/>
-      <c r="M17" s="439"/>
-      <c r="N17" s="440"/>
+      <c r="K17" s="440"/>
+      <c r="L17" s="441"/>
+      <c r="M17" s="440"/>
+      <c r="N17" s="441"/>
     </row>
     <row r="18" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="437"/>
-      <c r="D18" s="438"/>
-      <c r="E18" s="437"/>
-      <c r="F18" s="438"/>
-      <c r="G18" s="437"/>
-      <c r="H18" s="438"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="435"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="434"/>
+      <c r="H18" s="435"/>
       <c r="I18" s="364"/>
       <c r="J18" s="365"/>
-      <c r="K18" s="437"/>
-      <c r="L18" s="438"/>
-      <c r="M18" s="437"/>
-      <c r="N18" s="438"/>
+      <c r="K18" s="434"/>
+      <c r="L18" s="435"/>
+      <c r="M18" s="434"/>
+      <c r="N18" s="435"/>
     </row>
     <row r="19" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="379"/>
-      <c r="D19" s="380"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="380"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="402"/>
+      <c r="H19" s="403"/>
       <c r="I19" s="362"/>
       <c r="J19" s="363"/>
-      <c r="K19" s="379"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="379"/>
-      <c r="N19" s="380"/>
+      <c r="K19" s="402"/>
+      <c r="L19" s="403"/>
+      <c r="M19" s="402"/>
+      <c r="N19" s="403"/>
     </row>
     <row r="20" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="437"/>
-      <c r="D20" s="438"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="438"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="435"/>
+      <c r="E20" s="434"/>
+      <c r="F20" s="435"/>
+      <c r="G20" s="434"/>
+      <c r="H20" s="435"/>
       <c r="I20" s="364"/>
       <c r="J20" s="365"/>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
-      <c r="M20" s="437"/>
-      <c r="N20" s="438"/>
+      <c r="K20" s="434"/>
+      <c r="L20" s="435"/>
+      <c r="M20" s="434"/>
+      <c r="N20" s="435"/>
     </row>
     <row r="21" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B21" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="441"/>
-      <c r="D21" s="442"/>
-      <c r="E21" s="441"/>
-      <c r="F21" s="442"/>
-      <c r="G21" s="441"/>
-      <c r="H21" s="442"/>
+      <c r="C21" s="444"/>
+      <c r="D21" s="445"/>
+      <c r="E21" s="444"/>
+      <c r="F21" s="445"/>
+      <c r="G21" s="444"/>
+      <c r="H21" s="445"/>
       <c r="I21" s="368"/>
       <c r="J21" s="369"/>
-      <c r="K21" s="441"/>
-      <c r="L21" s="442"/>
-      <c r="M21" s="441"/>
-      <c r="N21" s="442"/>
+      <c r="K21" s="444"/>
+      <c r="L21" s="445"/>
+      <c r="M21" s="444"/>
+      <c r="N21" s="445"/>
     </row>
     <row r="22" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="443"/>
-      <c r="D22" s="444"/>
-      <c r="E22" s="443"/>
-      <c r="F22" s="444"/>
-      <c r="G22" s="443"/>
-      <c r="H22" s="444"/>
+      <c r="C22" s="446"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="446"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="446"/>
+      <c r="H22" s="447"/>
       <c r="I22" s="366"/>
       <c r="J22" s="367"/>
-      <c r="K22" s="443"/>
-      <c r="L22" s="444"/>
-      <c r="M22" s="443"/>
-      <c r="N22" s="444"/>
+      <c r="K22" s="446"/>
+      <c r="L22" s="447"/>
+      <c r="M22" s="446"/>
+      <c r="N22" s="447"/>
     </row>
     <row r="23" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="379"/>
-      <c r="D23" s="380"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="379"/>
-      <c r="H23" s="380"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="402"/>
+      <c r="H23" s="403"/>
       <c r="I23" s="362"/>
       <c r="J23" s="363"/>
-      <c r="K23" s="379"/>
-      <c r="L23" s="380"/>
-      <c r="M23" s="379"/>
-      <c r="N23" s="380"/>
+      <c r="K23" s="402"/>
+      <c r="L23" s="403"/>
+      <c r="M23" s="402"/>
+      <c r="N23" s="403"/>
     </row>
     <row r="24" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="278"/>
-      <c r="C24" s="437"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="437"/>
-      <c r="F24" s="438"/>
-      <c r="G24" s="437"/>
-      <c r="H24" s="438"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="434"/>
+      <c r="F24" s="435"/>
+      <c r="G24" s="434"/>
+      <c r="H24" s="435"/>
       <c r="I24" s="364"/>
       <c r="J24" s="365"/>
-      <c r="K24" s="437"/>
-      <c r="L24" s="438"/>
-      <c r="M24" s="437"/>
-      <c r="N24" s="438"/>
+      <c r="K24" s="434"/>
+      <c r="L24" s="435"/>
+      <c r="M24" s="434"/>
+      <c r="N24" s="435"/>
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="275"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="379"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="379"/>
-      <c r="H25" s="380"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="402"/>
+      <c r="H25" s="403"/>
       <c r="I25" s="362"/>
       <c r="J25" s="363"/>
-      <c r="K25" s="379"/>
-      <c r="L25" s="380"/>
-      <c r="M25" s="379"/>
-      <c r="N25" s="380"/>
+      <c r="K25" s="402"/>
+      <c r="L25" s="403"/>
+      <c r="M25" s="402"/>
+      <c r="N25" s="403"/>
     </row>
     <row r="26" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B26" s="280"/>
-      <c r="C26" s="435"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="435"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="435"/>
-      <c r="H26" s="436"/>
+      <c r="C26" s="448"/>
+      <c r="D26" s="449"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="448"/>
+      <c r="H26" s="449"/>
       <c r="I26" s="360"/>
       <c r="J26" s="361"/>
-      <c r="K26" s="435"/>
-      <c r="L26" s="436"/>
-      <c r="M26" s="435"/>
-      <c r="N26" s="436"/>
+      <c r="K26" s="448"/>
+      <c r="L26" s="449"/>
+      <c r="M26" s="448"/>
+      <c r="N26" s="449"/>
     </row>
     <row r="27" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="277"/>
-      <c r="C27" s="439"/>
-      <c r="D27" s="440"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="440"/>
-      <c r="G27" s="439"/>
-      <c r="H27" s="440"/>
+      <c r="C27" s="440"/>
+      <c r="D27" s="441"/>
+      <c r="E27" s="440"/>
+      <c r="F27" s="441"/>
+      <c r="G27" s="440"/>
+      <c r="H27" s="441"/>
       <c r="I27" s="350"/>
       <c r="J27" s="351"/>
-      <c r="K27" s="439"/>
-      <c r="L27" s="440"/>
-      <c r="M27" s="439"/>
-      <c r="N27" s="440"/>
+      <c r="K27" s="440"/>
+      <c r="L27" s="441"/>
+      <c r="M27" s="440"/>
+      <c r="N27" s="441"/>
     </row>
     <row r="28" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B28" s="278"/>
-      <c r="C28" s="437"/>
-      <c r="D28" s="438"/>
-      <c r="E28" s="437"/>
-      <c r="F28" s="438"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="434"/>
+      <c r="F28" s="435"/>
+      <c r="G28" s="434"/>
+      <c r="H28" s="435"/>
       <c r="I28" s="348"/>
       <c r="J28" s="349"/>
-      <c r="K28" s="437"/>
-      <c r="L28" s="438"/>
-      <c r="M28" s="437"/>
-      <c r="N28" s="380"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="435"/>
+      <c r="M28" s="434"/>
+      <c r="N28" s="403"/>
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="275"/>
-      <c r="C29" s="379"/>
-      <c r="D29" s="380"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="380"/>
-      <c r="G29" s="379"/>
-      <c r="H29" s="380"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="402"/>
+      <c r="H29" s="403"/>
       <c r="I29" s="344"/>
       <c r="J29" s="345"/>
-      <c r="K29" s="379"/>
-      <c r="L29" s="380"/>
-      <c r="M29" s="379"/>
-      <c r="N29" s="380"/>
+      <c r="K29" s="402"/>
+      <c r="L29" s="403"/>
+      <c r="M29" s="402"/>
+      <c r="N29" s="403"/>
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="278"/>
-      <c r="C30" s="437"/>
-      <c r="D30" s="438"/>
-      <c r="E30" s="437"/>
-      <c r="F30" s="438"/>
-      <c r="G30" s="437"/>
-      <c r="H30" s="438"/>
+      <c r="C30" s="434"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="434"/>
+      <c r="F30" s="435"/>
+      <c r="G30" s="434"/>
+      <c r="H30" s="435"/>
       <c r="I30" s="348"/>
       <c r="J30" s="349"/>
-      <c r="K30" s="437"/>
-      <c r="L30" s="438"/>
-      <c r="M30" s="437"/>
-      <c r="N30" s="438"/>
+      <c r="K30" s="434"/>
+      <c r="L30" s="435"/>
+      <c r="M30" s="434"/>
+      <c r="N30" s="435"/>
     </row>
     <row r="31" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B31" s="276"/>
-      <c r="C31" s="441"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="441"/>
-      <c r="F31" s="442"/>
-      <c r="G31" s="441"/>
-      <c r="H31" s="442"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="444"/>
+      <c r="F31" s="445"/>
+      <c r="G31" s="444"/>
+      <c r="H31" s="445"/>
       <c r="I31" s="352"/>
       <c r="J31" s="353"/>
-      <c r="K31" s="441"/>
-      <c r="L31" s="442"/>
-      <c r="M31" s="441"/>
-      <c r="N31" s="442"/>
+      <c r="K31" s="444"/>
+      <c r="L31" s="445"/>
+      <c r="M31" s="444"/>
+      <c r="N31" s="445"/>
     </row>
     <row r="32" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="279"/>
-      <c r="C32" s="443"/>
-      <c r="D32" s="444"/>
-      <c r="E32" s="443"/>
-      <c r="F32" s="444"/>
-      <c r="G32" s="443"/>
-      <c r="H32" s="444"/>
+      <c r="C32" s="446"/>
+      <c r="D32" s="447"/>
+      <c r="E32" s="446"/>
+      <c r="F32" s="447"/>
+      <c r="G32" s="446"/>
+      <c r="H32" s="447"/>
       <c r="I32" s="354"/>
       <c r="J32" s="355"/>
-      <c r="K32" s="443"/>
-      <c r="L32" s="444"/>
-      <c r="M32" s="443"/>
-      <c r="N32" s="444"/>
+      <c r="K32" s="446"/>
+      <c r="L32" s="447"/>
+      <c r="M32" s="446"/>
+      <c r="N32" s="447"/>
     </row>
     <row r="33" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="277"/>
-      <c r="C33" s="379"/>
-      <c r="D33" s="380"/>
-      <c r="E33" s="379"/>
-      <c r="F33" s="380"/>
-      <c r="G33" s="379"/>
-      <c r="H33" s="380"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="403"/>
+      <c r="E33" s="402"/>
+      <c r="F33" s="403"/>
+      <c r="G33" s="402"/>
+      <c r="H33" s="403"/>
       <c r="I33" s="344"/>
       <c r="J33" s="345"/>
-      <c r="K33" s="379"/>
-      <c r="L33" s="380"/>
-      <c r="M33" s="379"/>
-      <c r="N33" s="380"/>
+      <c r="K33" s="402"/>
+      <c r="L33" s="403"/>
+      <c r="M33" s="402"/>
+      <c r="N33" s="403"/>
     </row>
     <row r="34" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="279"/>
-      <c r="C34" s="437"/>
-      <c r="D34" s="438"/>
-      <c r="E34" s="437"/>
-      <c r="F34" s="438"/>
-      <c r="G34" s="437"/>
-      <c r="H34" s="438"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="435"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="435"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="435"/>
       <c r="I34" s="348"/>
       <c r="J34" s="349"/>
-      <c r="K34" s="437"/>
-      <c r="L34" s="438"/>
-      <c r="M34" s="437"/>
-      <c r="N34" s="438"/>
+      <c r="K34" s="434"/>
+      <c r="L34" s="435"/>
+      <c r="M34" s="434"/>
+      <c r="N34" s="435"/>
     </row>
     <row r="35" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="277"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="380"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="380"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="402"/>
+      <c r="F35" s="403"/>
+      <c r="G35" s="402"/>
+      <c r="H35" s="403"/>
       <c r="I35" s="344"/>
       <c r="J35" s="345"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="380"/>
-      <c r="M35" s="379"/>
-      <c r="N35" s="380"/>
+      <c r="K35" s="402"/>
+      <c r="L35" s="403"/>
+      <c r="M35" s="402"/>
+      <c r="N35" s="403"/>
     </row>
     <row r="36" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B36" s="280"/>
-      <c r="C36" s="435"/>
-      <c r="D36" s="436"/>
-      <c r="E36" s="435"/>
-      <c r="F36" s="436"/>
-      <c r="G36" s="435"/>
-      <c r="H36" s="436"/>
+      <c r="C36" s="448"/>
+      <c r="D36" s="449"/>
+      <c r="E36" s="448"/>
+      <c r="F36" s="449"/>
+      <c r="G36" s="448"/>
+      <c r="H36" s="449"/>
       <c r="I36" s="346"/>
       <c r="J36" s="347"/>
-      <c r="K36" s="435"/>
-      <c r="L36" s="436"/>
-      <c r="M36" s="435"/>
-      <c r="N36" s="436"/>
+      <c r="K36" s="448"/>
+      <c r="L36" s="449"/>
+      <c r="M36" s="448"/>
+      <c r="N36" s="449"/>
     </row>
     <row r="37" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="343" t="s">
@@ -23671,28 +23671,124 @@
     <row r="86" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -23717,124 +23813,28 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
